--- a/bug reports online form qa project.xlsx
+++ b/bug reports online form qa project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\QA\Energy Telecom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\QA\Energy Telecom\online-form-qa-web-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A9E55E-803E-41F8-AFE4-65493320A9EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2954FF77-5591-4308-AE6E-85502CD3781D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{19E98D7B-F548-4B1C-BBDB-D0E8A23C046D}"/>
   </bookViews>
@@ -285,16 +285,6 @@
 Form do not axepted by server. "Please enter the name of the person you were referred by" Error message.</t>
   </si>
   <si>
-    <t>1. Go to http://_
-2. Tipe "Simon1234567890qwertyuiopasdfgh" in "First Name" fild (31 characters string).
-3.  First 30 characters tiped (31 expected).</t>
-  </si>
-  <si>
-    <t>1. Go to http://_
-2. Tipe ""1044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu12345678Union"" in "Street address" fild (255 characters string).
-3.  First 100 characters tiped (255 expected).</t>
-  </si>
-  <si>
     <t>1. Go to: http://_
 2. Look at "Stste" list box.
 3. Default "Stste" list box displays "--" ("Select", "Select one" in other lists).</t>
@@ -312,14 +302,6 @@
   </si>
   <si>
     <t>1. Go to: http://_
-2. Tipe "9810i" in "ZIP" field</t>
-  </si>
-  <si>
-    <t>1. Go to: http://_
-2. Tipe "9810/" in "ZIP" field</t>
-  </si>
-  <si>
-    <t>1. Go to: http://_
 2. Paste "981011" in "ZIP" field</t>
   </si>
   <si>
@@ -374,46 +356,64 @@
   </si>
   <si>
     <t>1. Go to: http://_
-2. Tipe "qwer"  in "My monthly bill is approximately" field in "Cell Phone Service" foarm.</t>
+2. Look at "Current Provider" list box in "Local/Long Distances/International Service".
+3. Default "Current Provider" list box displays "Select one" ("--", "Select" in other lists).</t>
   </si>
   <si>
     <t xml:space="preserve">1. Go to: http://_
-2. Tipe "488" in first phone edit box  from "Primary Phone Number" field in Local/Long Distances/International Service.
+2. Paste "!@#" in "My monthly bill is approximately" field in "Local/Long Distances/International Service" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to: http://_
+2. Paste "qwe" in "My monthly bill is approximately" field in "Local/Long Distances/International Service" </t>
+  </si>
+  <si>
+    <t>1. Go to: http://_
+2. Paste "!@#" in first phone edit box  from "Primary Phone Number" field in Local/Long Distances/International Service.</t>
+  </si>
+  <si>
+    <t>1. Go to: http://_
+2. Paste "qwe" in first phone edit box  from "Primary Phone Number" field in Local/Long Distances/International Service.</t>
+  </si>
+  <si>
+    <t>1. Go to: http://_
+2. Look at "Current Provider" list box in the "Cell Phone Service" form.
+3. Default "Current Provider" list box displays "Selec one" ("--", "Select" in other lists).</t>
+  </si>
+  <si>
+    <t>1. Go to: http://_
+2. Type "9810i" in "ZIP" field</t>
+  </si>
+  <si>
+    <t>1. Go to: http://_
+2. Type "9810/" in "ZIP" field</t>
+  </si>
+  <si>
+    <t>1. Go to: http://_
+2. Type "qwer"  in "My monthly bill is approximately" field in "Cell Phone Service" foarm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to: http://_
+2. Type "488" in first phone edit box  from "Primary Phone Number" field in Local/Long Distances/International Service.
 3. Submit the form.
 4. "Please enter a valid Primary Phone Number for Local/Long Distances/International Service" Error message.
 5. Field "Primary Phone Number" in "Local/Long Distances/International Service" marks as a required (red asterics).
 </t>
   </si>
   <si>
-    <t>1. Go to: http://_
-2. Look at "Current Provider" list box in "Local/Long Distances/International Service".
-3. Default "Current Provider" list box displays "Select one" ("--", "Select" in other lists).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to: http://_
-2. Paste "!@#" in "My monthly bill is approximately" field in "Local/Long Distances/International Service" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to: http://_
-2. Paste "qwe" in "My monthly bill is approximately" field in "Local/Long Distances/International Service" </t>
-  </si>
-  <si>
-    <t>1. Go to: http://_
-2. Paste "!@#" in first phone edit box  from "Primary Phone Number" field in Local/Long Distances/International Service.</t>
-  </si>
-  <si>
-    <t>1. Go to: http://_
-2. Paste "qwe" in first phone edit box  from "Primary Phone Number" field in Local/Long Distances/International Service.</t>
-  </si>
-  <si>
-    <t>1. Go to: http://_
-2. Look at "Current Provider" list box in the "Cell Phone Service" form.
-3. Default "Current Provider" list box displays "Selec one" ("--", "Select" in other lists).</t>
-  </si>
-  <si>
     <t>1. Go to http://_
-2. Tipe "Test1234567890qwertyuiopasdfghj" in "First Name" fild (31 characters string).
-3.  First 30 characters tiped (31 expected).</t>
+2. Type ""1044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu123456781044 Union aveneu12345678Union"" in "Street address" fild (255 characters string).
+3.  First 100 characters typed (255 expected).</t>
+  </si>
+  <si>
+    <t>1. Go to http://_
+2. Type "Simon1234567890qwertyuiopasdfgh" in "First Name" fild (31 characters string).
+3.  First 30 characters typed (31 expected).</t>
+  </si>
+  <si>
+    <t>1. Go to http://_
+2. Type "Test1234567890qwertyuiopasdfghj" in "First Name" fild (31 characters string).
+3.  First 30 characters typed (31 expected).</t>
   </si>
 </sst>
 </file>
@@ -1062,8 +1062,8 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,7 +1246,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>14</v>
@@ -1276,7 +1276,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>14</v>
@@ -1336,7 +1336,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>14</v>
@@ -1366,7 +1366,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>14</v>
@@ -1396,7 +1396,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>14</v>
@@ -1426,7 +1426,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>14</v>
@@ -1456,7 +1456,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>14</v>
@@ -1486,7 +1486,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>14</v>
@@ -1516,7 +1516,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>14</v>
@@ -1546,7 +1546,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>14</v>
@@ -1576,7 +1576,7 @@
         <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
@@ -1606,7 +1606,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>14</v>
@@ -1636,7 +1636,7 @@
         <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>14</v>
@@ -1666,7 +1666,7 @@
         <v>53</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>14</v>
@@ -1696,7 +1696,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>14</v>
@@ -1726,7 +1726,7 @@
         <v>57</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
@@ -1756,7 +1756,7 @@
         <v>59</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>14</v>
@@ -1786,7 +1786,7 @@
         <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>14</v>
@@ -1872,7 +1872,7 @@
         <v>69</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>14</v>
@@ -1900,7 +1900,7 @@
         <v>70</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>14</v>
@@ -1928,7 +1928,7 @@
         <v>71</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>14</v>
@@ -1956,7 +1956,7 @@
         <v>72</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>14</v>
@@ -1984,7 +1984,7 @@
         <v>73</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>14</v>
@@ -2012,7 +2012,7 @@
         <v>74</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>14</v>
@@ -2042,7 +2042,7 @@
         <v>76</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>14</v>
@@ -2072,7 +2072,7 @@
         <v>78</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>14</v>
@@ -2102,7 +2102,7 @@
         <v>79</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>14</v>
@@ -2132,7 +2132,7 @@
         <v>80</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>14</v>
@@ -2162,7 +2162,7 @@
         <v>81</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>14</v>
